--- a/data/form-blank.xlsx
+++ b/data/form-blank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\WebTTCNTT\wp-content\plugins\dlu-tracuuvanbang\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFF394A-197B-4753-BD7F-F88D71B02DC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09491EAD-E99B-4D4A-8266-EF869026B0A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{FD369ADB-2576-4068-A78C-EC60C6010003}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="16200" windowHeight="9360" xr2:uid="{FD369ADB-2576-4068-A78C-EC60C6010003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Họ tên</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Số hiệu bằng</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -436,64 +439,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D55F830-D440-4492-84B5-249DECDC5915}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="2" max="2" width="6.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
